--- a/DataBlog.xlsx
+++ b/DataBlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\投资沙雕日记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A75016-E950-4216-BC6A-0EE5FA7645BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278B66F-7F6F-4E27-8873-80F8CA332C2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2010" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +286,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -594,20 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:J371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15" style="17" customWidth="1"/>
-    <col min="3" max="9" width="15" customWidth="1"/>
+    <col min="3" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +653,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
@@ -646,8 +667,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7"/>
@@ -657,8 +679,9 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7"/>
@@ -668,8 +691,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7"/>
@@ -679,8 +703,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7"/>
@@ -690,8 +715,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
@@ -701,8 +727,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
@@ -712,8 +739,9 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
@@ -723,8 +751,9 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
       <c r="C10" s="7"/>
@@ -734,8 +763,9 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7"/>
@@ -745,8 +775,9 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
@@ -756,8 +787,9 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7"/>
@@ -767,8 +799,9 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7"/>
@@ -778,8 +811,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7"/>
@@ -789,8 +823,9 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
@@ -800,8 +835,9 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
@@ -811,8 +847,9 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
@@ -822,8 +859,9 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
@@ -833,8 +871,9 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
@@ -844,8 +883,9 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
@@ -855,8 +895,9 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
@@ -866,8 +907,9 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
@@ -877,8 +919,9 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
@@ -888,8 +931,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
@@ -899,8 +943,9 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
@@ -910,8 +955,9 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
@@ -921,8 +967,9 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
@@ -932,8 +979,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
@@ -943,8 +991,9 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
@@ -954,8 +1003,9 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
@@ -965,8 +1015,9 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
@@ -976,8 +1027,9 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
@@ -987,8 +1039,9 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
@@ -998,8 +1051,9 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
@@ -1009,8 +1063,9 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
@@ -1020,8 +1075,9 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
@@ -1031,8 +1087,9 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
@@ -1042,8 +1099,9 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
@@ -1053,8 +1111,9 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
@@ -1064,8 +1123,9 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
@@ -1075,8 +1135,9 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
@@ -1086,8 +1147,9 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="10"/>
-    </row>
-    <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
@@ -1097,8 +1159,9 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
@@ -1108,8 +1171,9 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
@@ -1119,8 +1183,9 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
@@ -1130,8 +1195,9 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
@@ -1141,8 +1207,9 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
@@ -1152,8 +1219,9 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
@@ -1163,8 +1231,9 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
@@ -1174,8 +1243,9 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
@@ -1185,8 +1255,9 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
@@ -1196,8 +1267,9 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
@@ -1207,8 +1279,9 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
@@ -1218,8 +1291,9 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
@@ -1229,8 +1303,9 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
@@ -1240,8 +1315,9 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
@@ -1251,8 +1327,9 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
@@ -1262,8 +1339,9 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="12"/>
       <c r="C59" s="7"/>
@@ -1273,8 +1351,9 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="12"/>
       <c r="C60" s="7"/>
@@ -1284,8 +1363,9 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="12"/>
       <c r="C61" s="7"/>
@@ -1295,8 +1375,9 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="12"/>
       <c r="C62" s="7"/>
@@ -1306,8 +1387,9 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12"/>
       <c r="C63" s="7"/>
@@ -1317,8 +1399,9 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="12"/>
       <c r="C64" s="7"/>
@@ -1328,8 +1411,9 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="12"/>
       <c r="C65" s="7"/>
@@ -1339,8 +1423,9 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
       <c r="B66" s="12"/>
       <c r="C66" s="7"/>
@@ -1350,8 +1435,9 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="12"/>
       <c r="C67" s="7"/>
@@ -1361,8 +1447,9 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="12"/>
       <c r="C68" s="7"/>
@@ -1372,8 +1459,9 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="12"/>
       <c r="C69" s="7"/>
@@ -1383,8 +1471,9 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
       <c r="B70" s="12"/>
       <c r="C70" s="7"/>
@@ -1394,8 +1483,9 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
       <c r="C71" s="7"/>
@@ -1405,8 +1495,9 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="10"/>
-    </row>
-    <row r="72" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
       <c r="B72" s="12"/>
       <c r="C72" s="7"/>
@@ -1416,8 +1507,9 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
       <c r="C73" s="7"/>
@@ -1427,8 +1519,9 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
       <c r="C74" s="7"/>
@@ -1438,8 +1531,9 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="10"/>
-    </row>
-    <row r="75" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
       <c r="C75" s="7"/>
@@ -1449,8 +1543,9 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="10"/>
-    </row>
-    <row r="76" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
       <c r="B76" s="12"/>
       <c r="C76" s="7"/>
@@ -1460,8 +1555,9 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="10"/>
-    </row>
-    <row r="77" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
       <c r="C77" s="7"/>
@@ -1471,8 +1567,9 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="10"/>
-    </row>
-    <row r="78" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="12"/>
       <c r="C78" s="7"/>
@@ -1482,8 +1579,9 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="10"/>
-    </row>
-    <row r="79" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
       <c r="B79" s="12"/>
       <c r="C79" s="7"/>
@@ -1493,8 +1591,9 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
       <c r="B80" s="12"/>
       <c r="C80" s="7"/>
@@ -1504,8 +1603,9 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="10"/>
-    </row>
-    <row r="81" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="12"/>
       <c r="C81" s="7"/>
@@ -1515,8 +1615,9 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
       <c r="B82" s="12"/>
       <c r="C82" s="7"/>
@@ -1526,8 +1627,9 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="12"/>
       <c r="C83" s="7"/>
@@ -1537,8 +1639,9 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="12"/>
       <c r="C84" s="7"/>
@@ -1548,8 +1651,9 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
       <c r="B85" s="12"/>
       <c r="C85" s="7"/>
@@ -1559,8 +1663,9 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
       <c r="B86" s="12"/>
       <c r="C86" s="7"/>
@@ -1570,8 +1675,9 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="10"/>
-    </row>
-    <row r="87" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
       <c r="B87" s="12"/>
       <c r="C87" s="7"/>
@@ -1581,8 +1687,9 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="10"/>
-    </row>
-    <row r="88" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
       <c r="B88" s="12"/>
       <c r="C88" s="7"/>
@@ -1592,8 +1699,9 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
       <c r="B89" s="12"/>
       <c r="C89" s="7"/>
@@ -1603,8 +1711,9 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
       <c r="B90" s="12"/>
       <c r="C90" s="7"/>
@@ -1614,8 +1723,9 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
       <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="12"/>
       <c r="C91" s="7"/>
@@ -1625,8 +1735,9 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="10"/>
-    </row>
-    <row r="92" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A92" s="5"/>
       <c r="B92" s="12"/>
       <c r="C92" s="7"/>
@@ -1636,8 +1747,9 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="10"/>
-    </row>
-    <row r="93" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="12"/>
       <c r="C93" s="7"/>
@@ -1647,8 +1759,9 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="10"/>
-    </row>
-    <row r="94" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="12"/>
       <c r="C94" s="7"/>
@@ -1658,8 +1771,9 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="12"/>
       <c r="C95" s="7"/>
@@ -1669,8 +1783,9 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
       <c r="B96" s="12"/>
       <c r="C96" s="7"/>
@@ -1680,8 +1795,9 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="12"/>
       <c r="C97" s="7"/>
@@ -1691,8 +1807,9 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
       <c r="B98" s="12"/>
       <c r="C98" s="7"/>
@@ -1702,8 +1819,9 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="10"/>
-    </row>
-    <row r="99" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
       <c r="B99" s="12"/>
       <c r="C99" s="7"/>
@@ -1713,8 +1831,9 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="10"/>
-    </row>
-    <row r="100" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="12"/>
       <c r="C100" s="7"/>
@@ -1724,8 +1843,9 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="10"/>
-    </row>
-    <row r="101" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
       <c r="B101" s="12"/>
       <c r="C101" s="7"/>
@@ -1735,8 +1855,9 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="10"/>
-    </row>
-    <row r="102" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
       <c r="B102" s="12"/>
       <c r="C102" s="7"/>
@@ -1746,8 +1867,9 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="10"/>
-    </row>
-    <row r="103" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="12"/>
       <c r="C103" s="7"/>
@@ -1757,8 +1879,9 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="10"/>
-    </row>
-    <row r="104" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
       <c r="B104" s="12"/>
       <c r="C104" s="7"/>
@@ -1768,8 +1891,9 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="10"/>
-    </row>
-    <row r="105" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="12"/>
       <c r="C105" s="7"/>
@@ -1779,8 +1903,9 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="10"/>
-    </row>
-    <row r="106" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="12"/>
       <c r="C106" s="7"/>
@@ -1790,8 +1915,9 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="10"/>
-    </row>
-    <row r="107" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
       <c r="B107" s="12"/>
       <c r="C107" s="7"/>
@@ -1801,8 +1927,9 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="10"/>
-    </row>
-    <row r="108" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="12"/>
       <c r="C108" s="7"/>
@@ -1812,8 +1939,9 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="12"/>
       <c r="C109" s="7"/>
@@ -1823,8 +1951,9 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
       <c r="B110" s="12"/>
       <c r="C110" s="7"/>
@@ -1834,8 +1963,9 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="10"/>
-    </row>
-    <row r="111" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="12"/>
       <c r="C111" s="7"/>
@@ -1845,8 +1975,9 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="12"/>
       <c r="C112" s="7"/>
@@ -1856,8 +1987,9 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
       <c r="B113" s="12"/>
       <c r="C113" s="7"/>
@@ -1867,8 +1999,9 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="12"/>
       <c r="C114" s="7"/>
@@ -1878,8 +2011,9 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
       <c r="B115" s="12"/>
       <c r="C115" s="7"/>
@@ -1889,8 +2023,9 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="10"/>
-    </row>
-    <row r="116" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A116" s="5"/>
       <c r="B116" s="12"/>
       <c r="C116" s="7"/>
@@ -1900,8 +2035,9 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="10"/>
-    </row>
-    <row r="117" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="12"/>
       <c r="C117" s="7"/>
@@ -1911,8 +2047,9 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A118" s="5"/>
       <c r="B118" s="12"/>
       <c r="C118" s="7"/>
@@ -1922,8 +2059,9 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
       <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A119" s="5"/>
       <c r="B119" s="12"/>
       <c r="C119" s="7"/>
@@ -1933,8 +2071,9 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
       <c r="I119" s="10"/>
-    </row>
-    <row r="120" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="12"/>
       <c r="C120" s="7"/>
@@ -1944,8 +2083,9 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="10"/>
-    </row>
-    <row r="121" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
       <c r="B121" s="12"/>
       <c r="C121" s="7"/>
@@ -1955,8 +2095,9 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="10"/>
-    </row>
-    <row r="122" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="12"/>
       <c r="C122" s="7"/>
@@ -1966,8 +2107,9 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="10"/>
-    </row>
-    <row r="123" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A123" s="5"/>
       <c r="B123" s="12"/>
       <c r="C123" s="7"/>
@@ -1977,8 +2119,9 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="10"/>
-    </row>
-    <row r="124" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
       <c r="B124" s="12"/>
       <c r="C124" s="7"/>
@@ -1988,8 +2131,9 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="10"/>
-    </row>
-    <row r="125" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A125" s="5"/>
       <c r="B125" s="12"/>
       <c r="C125" s="7"/>
@@ -1999,8 +2143,9 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="10"/>
-    </row>
-    <row r="126" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A126" s="5"/>
       <c r="B126" s="12"/>
       <c r="C126" s="7"/>
@@ -2010,8 +2155,9 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="10"/>
-    </row>
-    <row r="127" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="12"/>
       <c r="C127" s="7"/>
@@ -2021,8 +2167,9 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A128" s="5"/>
       <c r="B128" s="12"/>
       <c r="C128" s="7"/>
@@ -2032,8 +2179,9 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="10"/>
-    </row>
-    <row r="129" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A129" s="5"/>
       <c r="B129" s="12"/>
       <c r="C129" s="7"/>
@@ -2043,8 +2191,9 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
       <c r="I129" s="10"/>
-    </row>
-    <row r="130" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="12"/>
       <c r="C130" s="7"/>
@@ -2054,8 +2203,9 @@
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
       <c r="I130" s="10"/>
-    </row>
-    <row r="131" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A131" s="5"/>
       <c r="B131" s="12"/>
       <c r="C131" s="7"/>
@@ -2065,8 +2215,9 @@
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
       <c r="I131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A132" s="5"/>
       <c r="B132" s="12"/>
       <c r="C132" s="7"/>
@@ -2076,8 +2227,9 @@
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
       <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="12"/>
       <c r="C133" s="7"/>
@@ -2087,8 +2239,9 @@
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="10"/>
-    </row>
-    <row r="134" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="12"/>
       <c r="C134" s="7"/>
@@ -2098,8 +2251,9 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
       <c r="I134" s="10"/>
-    </row>
-    <row r="135" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A135" s="5"/>
       <c r="B135" s="12"/>
       <c r="C135" s="7"/>
@@ -2109,8 +2263,9 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
       <c r="I135" s="10"/>
-    </row>
-    <row r="136" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="12"/>
       <c r="C136" s="7"/>
@@ -2120,8 +2275,9 @@
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
       <c r="I136" s="10"/>
-    </row>
-    <row r="137" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="12"/>
       <c r="C137" s="7"/>
@@ -2131,8 +2287,9 @@
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="10"/>
-    </row>
-    <row r="138" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A138" s="5"/>
       <c r="B138" s="12"/>
       <c r="C138" s="7"/>
@@ -2142,8 +2299,9 @@
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
       <c r="I138" s="10"/>
-    </row>
-    <row r="139" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="12"/>
       <c r="C139" s="7"/>
@@ -2153,8 +2311,9 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
       <c r="I139" s="10"/>
-    </row>
-    <row r="140" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="12"/>
       <c r="C140" s="7"/>
@@ -2164,8 +2323,9 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="10"/>
-    </row>
-    <row r="141" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A141" s="5"/>
       <c r="B141" s="12"/>
       <c r="C141" s="7"/>
@@ -2175,8 +2335,9 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="10"/>
-    </row>
-    <row r="142" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="12"/>
       <c r="C142" s="7"/>
@@ -2186,8 +2347,9 @@
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
       <c r="I142" s="10"/>
-    </row>
-    <row r="143" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="12"/>
       <c r="C143" s="7"/>
@@ -2197,8 +2359,9 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
       <c r="I143" s="10"/>
-    </row>
-    <row r="144" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A144" s="5"/>
       <c r="B144" s="12"/>
       <c r="C144" s="7"/>
@@ -2208,8 +2371,9 @@
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
       <c r="I144" s="10"/>
-    </row>
-    <row r="145" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A145" s="5"/>
       <c r="B145" s="12"/>
       <c r="C145" s="7"/>
@@ -2219,8 +2383,9 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
       <c r="I145" s="10"/>
-    </row>
-    <row r="146" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="12"/>
       <c r="C146" s="7"/>
@@ -2230,8 +2395,9 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="10"/>
-    </row>
-    <row r="147" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A147" s="5"/>
       <c r="B147" s="12"/>
       <c r="C147" s="7"/>
@@ -2241,8 +2407,9 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
       <c r="I147" s="10"/>
-    </row>
-    <row r="148" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A148" s="5"/>
       <c r="B148" s="12"/>
       <c r="C148" s="7"/>
@@ -2252,8 +2419,9 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
       <c r="I148" s="10"/>
-    </row>
-    <row r="149" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="12"/>
       <c r="C149" s="7"/>
@@ -2263,8 +2431,9 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
       <c r="I149" s="10"/>
-    </row>
-    <row r="150" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
       <c r="B150" s="12"/>
       <c r="C150" s="7"/>
@@ -2274,8 +2443,9 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
       <c r="I150" s="10"/>
-    </row>
-    <row r="151" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A151" s="5"/>
       <c r="B151" s="12"/>
       <c r="C151" s="7"/>
@@ -2285,8 +2455,9 @@
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
       <c r="I151" s="10"/>
-    </row>
-    <row r="152" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A152" s="5"/>
       <c r="B152" s="12"/>
       <c r="C152" s="7"/>
@@ -2296,8 +2467,9 @@
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
       <c r="I152" s="10"/>
-    </row>
-    <row r="153" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
       <c r="B153" s="12"/>
       <c r="C153" s="7"/>
@@ -2307,8 +2479,9 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="10"/>
-    </row>
-    <row r="154" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J153" s="7"/>
+    </row>
+    <row r="154" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A154" s="5"/>
       <c r="B154" s="12"/>
       <c r="C154" s="7"/>
@@ -2318,8 +2491,9 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
       <c r="I154" s="10"/>
-    </row>
-    <row r="155" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A155" s="5"/>
       <c r="B155" s="12"/>
       <c r="C155" s="7"/>
@@ -2329,8 +2503,9 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
       <c r="I155" s="10"/>
-    </row>
-    <row r="156" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A156" s="5"/>
       <c r="B156" s="12"/>
       <c r="C156" s="7"/>
@@ -2340,8 +2515,9 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
       <c r="I156" s="10"/>
-    </row>
-    <row r="157" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J156" s="7"/>
+    </row>
+    <row r="157" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A157" s="5"/>
       <c r="B157" s="12"/>
       <c r="C157" s="7"/>
@@ -2351,8 +2527,9 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
       <c r="I157" s="10"/>
-    </row>
-    <row r="158" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A158" s="5"/>
       <c r="B158" s="12"/>
       <c r="C158" s="7"/>
@@ -2362,8 +2539,9 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
       <c r="I158" s="10"/>
-    </row>
-    <row r="159" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A159" s="5"/>
       <c r="B159" s="12"/>
       <c r="C159" s="7"/>
@@ -2373,8 +2551,9 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
       <c r="I159" s="10"/>
-    </row>
-    <row r="160" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A160" s="5"/>
       <c r="B160" s="12"/>
       <c r="C160" s="7"/>
@@ -2384,8 +2563,9 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
       <c r="I160" s="10"/>
-    </row>
-    <row r="161" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A161" s="5"/>
       <c r="B161" s="12"/>
       <c r="C161" s="7"/>
@@ -2395,8 +2575,9 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
       <c r="I161" s="10"/>
-    </row>
-    <row r="162" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A162" s="5"/>
       <c r="B162" s="12"/>
       <c r="C162" s="7"/>
@@ -2406,8 +2587,9 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
       <c r="I162" s="10"/>
-    </row>
-    <row r="163" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A163" s="5"/>
       <c r="B163" s="12"/>
       <c r="C163" s="7"/>
@@ -2417,8 +2599,9 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="10"/>
-    </row>
-    <row r="164" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A164" s="5"/>
       <c r="B164" s="12"/>
       <c r="C164" s="7"/>
@@ -2428,8 +2611,9 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
       <c r="I164" s="10"/>
-    </row>
-    <row r="165" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A165" s="5"/>
       <c r="B165" s="12"/>
       <c r="C165" s="7"/>
@@ -2439,8 +2623,9 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="10"/>
-    </row>
-    <row r="166" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A166" s="5"/>
       <c r="B166" s="12"/>
       <c r="C166" s="7"/>
@@ -2450,8 +2635,9 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
       <c r="I166" s="10"/>
-    </row>
-    <row r="167" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
       <c r="B167" s="12"/>
       <c r="C167" s="7"/>
@@ -2461,8 +2647,9 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
       <c r="I167" s="10"/>
-    </row>
-    <row r="168" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J167" s="7"/>
+    </row>
+    <row r="168" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A168" s="5"/>
       <c r="B168" s="12"/>
       <c r="C168" s="7"/>
@@ -2472,8 +2659,9 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
       <c r="I168" s="10"/>
-    </row>
-    <row r="169" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A169" s="5"/>
       <c r="B169" s="12"/>
       <c r="C169" s="7"/>
@@ -2483,8 +2671,9 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
       <c r="I169" s="10"/>
-    </row>
-    <row r="170" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A170" s="5"/>
       <c r="B170" s="12"/>
       <c r="C170" s="7"/>
@@ -2494,8 +2683,9 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
       <c r="I170" s="10"/>
-    </row>
-    <row r="171" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A171" s="5"/>
       <c r="B171" s="12"/>
       <c r="C171" s="7"/>
@@ -2505,8 +2695,9 @@
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
       <c r="I171" s="10"/>
-    </row>
-    <row r="172" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A172" s="5"/>
       <c r="B172" s="12"/>
       <c r="C172" s="7"/>
@@ -2516,8 +2707,9 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
       <c r="I172" s="10"/>
-    </row>
-    <row r="173" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A173" s="5"/>
       <c r="B173" s="12"/>
       <c r="C173" s="7"/>
@@ -2527,8 +2719,9 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
       <c r="I173" s="10"/>
-    </row>
-    <row r="174" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A174" s="5"/>
       <c r="B174" s="12"/>
       <c r="C174" s="7"/>
@@ -2538,8 +2731,9 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
       <c r="I174" s="10"/>
-    </row>
-    <row r="175" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A175" s="5"/>
       <c r="B175" s="12"/>
       <c r="C175" s="7"/>
@@ -2549,8 +2743,9 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
       <c r="I175" s="10"/>
-    </row>
-    <row r="176" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A176" s="5"/>
       <c r="B176" s="12"/>
       <c r="C176" s="7"/>
@@ -2560,8 +2755,9 @@
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
       <c r="I176" s="10"/>
-    </row>
-    <row r="177" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A177" s="5"/>
       <c r="B177" s="12"/>
       <c r="C177" s="7"/>
@@ -2571,8 +2767,9 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="10"/>
-    </row>
-    <row r="178" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J177" s="7"/>
+    </row>
+    <row r="178" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A178" s="5"/>
       <c r="B178" s="12"/>
       <c r="C178" s="7"/>
@@ -2582,8 +2779,9 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
       <c r="I178" s="10"/>
-    </row>
-    <row r="179" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J178" s="7"/>
+    </row>
+    <row r="179" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A179" s="5"/>
       <c r="B179" s="12"/>
       <c r="C179" s="7"/>
@@ -2593,8 +2791,9 @@
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
       <c r="I179" s="10"/>
-    </row>
-    <row r="180" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A180" s="5"/>
       <c r="B180" s="12"/>
       <c r="C180" s="7"/>
@@ -2604,8 +2803,9 @@
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="10"/>
-    </row>
-    <row r="181" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A181" s="5"/>
       <c r="B181" s="12"/>
       <c r="C181" s="7"/>
@@ -2615,8 +2815,9 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
       <c r="I181" s="10"/>
-    </row>
-    <row r="182" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J181" s="7"/>
+    </row>
+    <row r="182" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A182" s="5"/>
       <c r="B182" s="12"/>
       <c r="C182" s="7"/>
@@ -2626,8 +2827,9 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
       <c r="I182" s="10"/>
-    </row>
-    <row r="183" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J182" s="7"/>
+    </row>
+    <row r="183" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A183" s="5"/>
       <c r="B183" s="12"/>
       <c r="C183" s="7"/>
@@ -2637,8 +2839,9 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
       <c r="I183" s="10"/>
-    </row>
-    <row r="184" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A184" s="5"/>
       <c r="B184" s="12"/>
       <c r="C184" s="7"/>
@@ -2648,8 +2851,9 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
       <c r="I184" s="10"/>
-    </row>
-    <row r="185" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J184" s="7"/>
+    </row>
+    <row r="185" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A185" s="5"/>
       <c r="B185" s="12"/>
       <c r="C185" s="7"/>
@@ -2659,8 +2863,9 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
       <c r="I185" s="10"/>
-    </row>
-    <row r="186" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J185" s="7"/>
+    </row>
+    <row r="186" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A186" s="5"/>
       <c r="B186" s="12"/>
       <c r="C186" s="7"/>
@@ -2670,8 +2875,9 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
       <c r="I186" s="10"/>
-    </row>
-    <row r="187" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J186" s="7"/>
+    </row>
+    <row r="187" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A187" s="5"/>
       <c r="B187" s="12"/>
       <c r="C187" s="7"/>
@@ -2681,8 +2887,9 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
       <c r="I187" s="10"/>
-    </row>
-    <row r="188" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J187" s="7"/>
+    </row>
+    <row r="188" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A188" s="5"/>
       <c r="B188" s="12"/>
       <c r="C188" s="7"/>
@@ -2692,8 +2899,9 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
       <c r="I188" s="10"/>
-    </row>
-    <row r="189" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J188" s="7"/>
+    </row>
+    <row r="189" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A189" s="5"/>
       <c r="B189" s="12"/>
       <c r="C189" s="7"/>
@@ -2703,8 +2911,9 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="10"/>
-    </row>
-    <row r="190" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J189" s="7"/>
+    </row>
+    <row r="190" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A190" s="5"/>
       <c r="B190" s="12"/>
       <c r="C190" s="7"/>
@@ -2714,8 +2923,9 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
       <c r="I190" s="10"/>
-    </row>
-    <row r="191" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J190" s="7"/>
+    </row>
+    <row r="191" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A191" s="5"/>
       <c r="B191" s="12"/>
       <c r="C191" s="7"/>
@@ -2725,8 +2935,9 @@
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
       <c r="I191" s="10"/>
-    </row>
-    <row r="192" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A192" s="5"/>
       <c r="B192" s="12"/>
       <c r="C192" s="7"/>
@@ -2736,8 +2947,9 @@
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
       <c r="I192" s="10"/>
-    </row>
-    <row r="193" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J192" s="7"/>
+    </row>
+    <row r="193" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A193" s="5"/>
       <c r="B193" s="12"/>
       <c r="C193" s="7"/>
@@ -2747,8 +2959,9 @@
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
       <c r="I193" s="10"/>
-    </row>
-    <row r="194" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A194" s="5"/>
       <c r="B194" s="12"/>
       <c r="C194" s="7"/>
@@ -2758,8 +2971,9 @@
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
       <c r="I194" s="10"/>
-    </row>
-    <row r="195" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J194" s="7"/>
+    </row>
+    <row r="195" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A195" s="5"/>
       <c r="B195" s="12"/>
       <c r="C195" s="7"/>
@@ -2769,8 +2983,9 @@
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
       <c r="I195" s="10"/>
-    </row>
-    <row r="196" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J195" s="7"/>
+    </row>
+    <row r="196" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A196" s="5"/>
       <c r="B196" s="12"/>
       <c r="C196" s="7"/>
@@ -2780,8 +2995,9 @@
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
       <c r="I196" s="10"/>
-    </row>
-    <row r="197" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J196" s="7"/>
+    </row>
+    <row r="197" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A197" s="5"/>
       <c r="B197" s="12"/>
       <c r="C197" s="7"/>
@@ -2791,8 +3007,9 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="10"/>
-    </row>
-    <row r="198" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J197" s="7"/>
+    </row>
+    <row r="198" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A198" s="5"/>
       <c r="B198" s="12"/>
       <c r="C198" s="7"/>
@@ -2802,8 +3019,9 @@
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
       <c r="I198" s="10"/>
-    </row>
-    <row r="199" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A199" s="5"/>
       <c r="B199" s="12"/>
       <c r="C199" s="7"/>
@@ -2813,8 +3031,9 @@
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
       <c r="I199" s="10"/>
-    </row>
-    <row r="200" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J199" s="7"/>
+    </row>
+    <row r="200" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A200" s="5"/>
       <c r="B200" s="12"/>
       <c r="C200" s="7"/>
@@ -2824,8 +3043,9 @@
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
       <c r="I200" s="10"/>
-    </row>
-    <row r="201" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J200" s="7"/>
+    </row>
+    <row r="201" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A201" s="5"/>
       <c r="B201" s="12"/>
       <c r="C201" s="7"/>
@@ -2835,8 +3055,9 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="10"/>
-    </row>
-    <row r="202" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J201" s="7"/>
+    </row>
+    <row r="202" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A202" s="5"/>
       <c r="B202" s="12"/>
       <c r="C202" s="7"/>
@@ -2846,8 +3067,9 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
       <c r="I202" s="10"/>
-    </row>
-    <row r="203" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J202" s="7"/>
+    </row>
+    <row r="203" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A203" s="5"/>
       <c r="B203" s="12"/>
       <c r="C203" s="7"/>
@@ -2857,8 +3079,9 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
       <c r="I203" s="10"/>
-    </row>
-    <row r="204" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J203" s="7"/>
+    </row>
+    <row r="204" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A204" s="5"/>
       <c r="B204" s="12"/>
       <c r="C204" s="7"/>
@@ -2868,8 +3091,9 @@
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
       <c r="I204" s="10"/>
-    </row>
-    <row r="205" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J204" s="7"/>
+    </row>
+    <row r="205" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A205" s="5"/>
       <c r="B205" s="12"/>
       <c r="C205" s="7"/>
@@ -2879,8 +3103,9 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
       <c r="I205" s="10"/>
-    </row>
-    <row r="206" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J205" s="7"/>
+    </row>
+    <row r="206" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A206" s="5"/>
       <c r="B206" s="12"/>
       <c r="C206" s="7"/>
@@ -2890,8 +3115,9 @@
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
       <c r="I206" s="10"/>
-    </row>
-    <row r="207" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J206" s="7"/>
+    </row>
+    <row r="207" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A207" s="5"/>
       <c r="B207" s="12"/>
       <c r="C207" s="7"/>
@@ -2901,8 +3127,9 @@
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
       <c r="I207" s="10"/>
-    </row>
-    <row r="208" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J207" s="7"/>
+    </row>
+    <row r="208" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A208" s="5"/>
       <c r="B208" s="12"/>
       <c r="C208" s="7"/>
@@ -2912,8 +3139,9 @@
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
       <c r="I208" s="10"/>
-    </row>
-    <row r="209" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J208" s="7"/>
+    </row>
+    <row r="209" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A209" s="5"/>
       <c r="B209" s="12"/>
       <c r="C209" s="7"/>
@@ -2923,8 +3151,9 @@
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
       <c r="I209" s="10"/>
-    </row>
-    <row r="210" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J209" s="7"/>
+    </row>
+    <row r="210" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A210" s="5"/>
       <c r="B210" s="12"/>
       <c r="C210" s="7"/>
@@ -2934,8 +3163,9 @@
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
       <c r="I210" s="10"/>
-    </row>
-    <row r="211" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J210" s="7"/>
+    </row>
+    <row r="211" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A211" s="5"/>
       <c r="B211" s="12"/>
       <c r="C211" s="7"/>
@@ -2945,8 +3175,9 @@
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
       <c r="I211" s="10"/>
-    </row>
-    <row r="212" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J211" s="7"/>
+    </row>
+    <row r="212" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A212" s="5"/>
       <c r="B212" s="12"/>
       <c r="C212" s="7"/>
@@ -2956,8 +3187,9 @@
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
       <c r="I212" s="10"/>
-    </row>
-    <row r="213" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J212" s="7"/>
+    </row>
+    <row r="213" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A213" s="5"/>
       <c r="B213" s="12"/>
       <c r="C213" s="7"/>
@@ -2967,8 +3199,9 @@
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
       <c r="I213" s="10"/>
-    </row>
-    <row r="214" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J213" s="7"/>
+    </row>
+    <row r="214" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A214" s="5"/>
       <c r="B214" s="12"/>
       <c r="C214" s="7"/>
@@ -2978,8 +3211,9 @@
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
       <c r="I214" s="10"/>
-    </row>
-    <row r="215" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J214" s="7"/>
+    </row>
+    <row r="215" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A215" s="5"/>
       <c r="B215" s="12"/>
       <c r="C215" s="7"/>
@@ -2989,8 +3223,9 @@
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
       <c r="I215" s="10"/>
-    </row>
-    <row r="216" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J215" s="7"/>
+    </row>
+    <row r="216" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A216" s="5"/>
       <c r="B216" s="12"/>
       <c r="C216" s="7"/>
@@ -3000,8 +3235,9 @@
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
       <c r="I216" s="10"/>
-    </row>
-    <row r="217" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J216" s="7"/>
+    </row>
+    <row r="217" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A217" s="5"/>
       <c r="B217" s="12"/>
       <c r="C217" s="7"/>
@@ -3011,8 +3247,9 @@
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
       <c r="I217" s="10"/>
-    </row>
-    <row r="218" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J217" s="7"/>
+    </row>
+    <row r="218" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A218" s="5"/>
       <c r="B218" s="12"/>
       <c r="C218" s="7"/>
@@ -3022,8 +3259,9 @@
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
       <c r="I218" s="10"/>
-    </row>
-    <row r="219" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J218" s="7"/>
+    </row>
+    <row r="219" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A219" s="5"/>
       <c r="B219" s="12"/>
       <c r="C219" s="7"/>
@@ -3033,8 +3271,9 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
       <c r="I219" s="10"/>
-    </row>
-    <row r="220" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J219" s="7"/>
+    </row>
+    <row r="220" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A220" s="5"/>
       <c r="B220" s="12"/>
       <c r="C220" s="7"/>
@@ -3044,8 +3283,9 @@
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
       <c r="I220" s="10"/>
-    </row>
-    <row r="221" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J220" s="7"/>
+    </row>
+    <row r="221" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A221" s="5"/>
       <c r="B221" s="12"/>
       <c r="C221" s="7"/>
@@ -3055,8 +3295,9 @@
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
       <c r="I221" s="10"/>
-    </row>
-    <row r="222" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J221" s="7"/>
+    </row>
+    <row r="222" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A222" s="5"/>
       <c r="B222" s="12"/>
       <c r="C222" s="7"/>
@@ -3066,8 +3307,9 @@
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
       <c r="I222" s="10"/>
-    </row>
-    <row r="223" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J222" s="7"/>
+    </row>
+    <row r="223" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A223" s="5"/>
       <c r="B223" s="12"/>
       <c r="C223" s="7"/>
@@ -3077,8 +3319,9 @@
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
       <c r="I223" s="10"/>
-    </row>
-    <row r="224" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J223" s="7"/>
+    </row>
+    <row r="224" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A224" s="5"/>
       <c r="B224" s="12"/>
       <c r="C224" s="7"/>
@@ -3088,8 +3331,9 @@
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
       <c r="I224" s="10"/>
-    </row>
-    <row r="225" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J224" s="7"/>
+    </row>
+    <row r="225" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A225" s="5"/>
       <c r="B225" s="12"/>
       <c r="C225" s="7"/>
@@ -3099,8 +3343,9 @@
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
       <c r="I225" s="10"/>
-    </row>
-    <row r="226" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J225" s="7"/>
+    </row>
+    <row r="226" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A226" s="5"/>
       <c r="B226" s="12"/>
       <c r="C226" s="7"/>
@@ -3110,8 +3355,9 @@
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
       <c r="I226" s="10"/>
-    </row>
-    <row r="227" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J226" s="7"/>
+    </row>
+    <row r="227" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A227" s="5"/>
       <c r="B227" s="12"/>
       <c r="C227" s="7"/>
@@ -3121,8 +3367,9 @@
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
       <c r="I227" s="10"/>
-    </row>
-    <row r="228" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J227" s="7"/>
+    </row>
+    <row r="228" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A228" s="5"/>
       <c r="B228" s="12"/>
       <c r="C228" s="7"/>
@@ -3132,8 +3379,9 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
       <c r="I228" s="10"/>
-    </row>
-    <row r="229" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J228" s="7"/>
+    </row>
+    <row r="229" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A229" s="5"/>
       <c r="B229" s="12"/>
       <c r="C229" s="7"/>
@@ -3143,8 +3391,9 @@
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
       <c r="I229" s="10"/>
-    </row>
-    <row r="230" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J229" s="7"/>
+    </row>
+    <row r="230" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A230" s="5"/>
       <c r="B230" s="12"/>
       <c r="C230" s="7"/>
@@ -3154,8 +3403,9 @@
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
       <c r="I230" s="10"/>
-    </row>
-    <row r="231" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J230" s="7"/>
+    </row>
+    <row r="231" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A231" s="5"/>
       <c r="B231" s="12"/>
       <c r="C231" s="7"/>
@@ -3165,8 +3415,9 @@
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
       <c r="I231" s="10"/>
-    </row>
-    <row r="232" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J231" s="7"/>
+    </row>
+    <row r="232" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A232" s="5"/>
       <c r="B232" s="12"/>
       <c r="C232" s="7"/>
@@ -3176,8 +3427,9 @@
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
       <c r="I232" s="10"/>
-    </row>
-    <row r="233" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J232" s="7"/>
+    </row>
+    <row r="233" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A233" s="5"/>
       <c r="B233" s="12"/>
       <c r="C233" s="7"/>
@@ -3187,8 +3439,9 @@
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
       <c r="I233" s="10"/>
-    </row>
-    <row r="234" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J233" s="7"/>
+    </row>
+    <row r="234" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A234" s="5"/>
       <c r="B234" s="12"/>
       <c r="C234" s="7"/>
@@ -3198,8 +3451,9 @@
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
       <c r="I234" s="10"/>
-    </row>
-    <row r="235" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J234" s="7"/>
+    </row>
+    <row r="235" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A235" s="5"/>
       <c r="B235" s="12"/>
       <c r="C235" s="7"/>
@@ -3209,8 +3463,9 @@
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
       <c r="I235" s="10"/>
-    </row>
-    <row r="236" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J235" s="7"/>
+    </row>
+    <row r="236" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A236" s="5"/>
       <c r="B236" s="12"/>
       <c r="C236" s="7"/>
@@ -3220,8 +3475,9 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
       <c r="I236" s="10"/>
-    </row>
-    <row r="237" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J236" s="7"/>
+    </row>
+    <row r="237" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A237" s="5"/>
       <c r="B237" s="12"/>
       <c r="C237" s="7"/>
@@ -3231,8 +3487,9 @@
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
       <c r="I237" s="10"/>
-    </row>
-    <row r="238" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J237" s="7"/>
+    </row>
+    <row r="238" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A238" s="5"/>
       <c r="B238" s="12"/>
       <c r="C238" s="7"/>
@@ -3242,8 +3499,9 @@
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
       <c r="I238" s="10"/>
-    </row>
-    <row r="239" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J238" s="7"/>
+    </row>
+    <row r="239" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A239" s="5"/>
       <c r="B239" s="12"/>
       <c r="C239" s="7"/>
@@ -3253,8 +3511,9 @@
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
       <c r="I239" s="10"/>
-    </row>
-    <row r="240" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J239" s="7"/>
+    </row>
+    <row r="240" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A240" s="5"/>
       <c r="B240" s="12"/>
       <c r="C240" s="7"/>
@@ -3264,8 +3523,9 @@
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
       <c r="I240" s="10"/>
-    </row>
-    <row r="241" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J240" s="7"/>
+    </row>
+    <row r="241" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A241" s="5"/>
       <c r="B241" s="12"/>
       <c r="C241" s="7"/>
@@ -3275,8 +3535,9 @@
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
       <c r="I241" s="10"/>
-    </row>
-    <row r="242" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J241" s="7"/>
+    </row>
+    <row r="242" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A242" s="5"/>
       <c r="B242" s="12"/>
       <c r="C242" s="7"/>
@@ -3286,8 +3547,9 @@
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
       <c r="I242" s="10"/>
-    </row>
-    <row r="243" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J242" s="7"/>
+    </row>
+    <row r="243" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A243" s="5"/>
       <c r="B243" s="12"/>
       <c r="C243" s="7"/>
@@ -3297,8 +3559,9 @@
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
       <c r="I243" s="10"/>
-    </row>
-    <row r="244" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J243" s="7"/>
+    </row>
+    <row r="244" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A244" s="5"/>
       <c r="B244" s="12"/>
       <c r="C244" s="7"/>
@@ -3308,8 +3571,9 @@
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
       <c r="I244" s="10"/>
-    </row>
-    <row r="245" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J244" s="7"/>
+    </row>
+    <row r="245" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A245" s="5"/>
       <c r="B245" s="12"/>
       <c r="C245" s="7"/>
@@ -3319,8 +3583,9 @@
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
       <c r="I245" s="10"/>
-    </row>
-    <row r="246" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J245" s="7"/>
+    </row>
+    <row r="246" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A246" s="5"/>
       <c r="B246" s="12"/>
       <c r="C246" s="7"/>
@@ -3330,8 +3595,9 @@
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
       <c r="I246" s="10"/>
-    </row>
-    <row r="247" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J246" s="7"/>
+    </row>
+    <row r="247" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A247" s="5"/>
       <c r="B247" s="12"/>
       <c r="C247" s="7"/>
@@ -3341,8 +3607,9 @@
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
       <c r="I247" s="10"/>
-    </row>
-    <row r="248" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J247" s="7"/>
+    </row>
+    <row r="248" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A248" s="5"/>
       <c r="B248" s="12"/>
       <c r="C248" s="7"/>
@@ -3352,8 +3619,9 @@
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
       <c r="I248" s="10"/>
-    </row>
-    <row r="249" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J248" s="7"/>
+    </row>
+    <row r="249" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A249" s="5"/>
       <c r="B249" s="12"/>
       <c r="C249" s="7"/>
@@ -3363,8 +3631,9 @@
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
       <c r="I249" s="10"/>
-    </row>
-    <row r="250" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J249" s="7"/>
+    </row>
+    <row r="250" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A250" s="5"/>
       <c r="B250" s="12"/>
       <c r="C250" s="7"/>
@@ -3374,8 +3643,9 @@
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
       <c r="I250" s="10"/>
-    </row>
-    <row r="251" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J250" s="7"/>
+    </row>
+    <row r="251" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A251" s="5"/>
       <c r="B251" s="12"/>
       <c r="C251" s="7"/>
@@ -3385,8 +3655,9 @@
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
       <c r="I251" s="10"/>
-    </row>
-    <row r="252" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J251" s="7"/>
+    </row>
+    <row r="252" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A252" s="5"/>
       <c r="B252" s="12"/>
       <c r="C252" s="7"/>
@@ -3396,8 +3667,9 @@
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
       <c r="I252" s="10"/>
-    </row>
-    <row r="253" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J252" s="7"/>
+    </row>
+    <row r="253" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A253" s="5"/>
       <c r="B253" s="12"/>
       <c r="C253" s="7"/>
@@ -3407,8 +3679,9 @@
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
       <c r="I253" s="10"/>
-    </row>
-    <row r="254" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J253" s="7"/>
+    </row>
+    <row r="254" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A254" s="5"/>
       <c r="B254" s="12"/>
       <c r="C254" s="7"/>
@@ -3418,8 +3691,9 @@
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
       <c r="I254" s="10"/>
-    </row>
-    <row r="255" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J254" s="7"/>
+    </row>
+    <row r="255" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A255" s="5"/>
       <c r="B255" s="12"/>
       <c r="C255" s="7"/>
@@ -3429,8 +3703,9 @@
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
       <c r="I255" s="10"/>
-    </row>
-    <row r="256" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J255" s="7"/>
+    </row>
+    <row r="256" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A256" s="5"/>
       <c r="B256" s="12"/>
       <c r="C256" s="7"/>
@@ -3440,8 +3715,9 @@
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
       <c r="I256" s="10"/>
-    </row>
-    <row r="257" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J256" s="7"/>
+    </row>
+    <row r="257" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A257" s="5"/>
       <c r="B257" s="12"/>
       <c r="C257" s="7"/>
@@ -3451,8 +3727,9 @@
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
       <c r="I257" s="10"/>
-    </row>
-    <row r="258" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J257" s="7"/>
+    </row>
+    <row r="258" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A258" s="5"/>
       <c r="B258" s="12"/>
       <c r="C258" s="7"/>
@@ -3462,8 +3739,9 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
       <c r="I258" s="10"/>
-    </row>
-    <row r="259" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J258" s="7"/>
+    </row>
+    <row r="259" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A259" s="5"/>
       <c r="B259" s="12"/>
       <c r="C259" s="7"/>
@@ -3473,8 +3751,9 @@
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
       <c r="I259" s="10"/>
-    </row>
-    <row r="260" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J259" s="7"/>
+    </row>
+    <row r="260" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A260" s="5"/>
       <c r="B260" s="12"/>
       <c r="C260" s="7"/>
@@ -3484,8 +3763,9 @@
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
       <c r="I260" s="10"/>
-    </row>
-    <row r="261" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J260" s="7"/>
+    </row>
+    <row r="261" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A261" s="5"/>
       <c r="B261" s="12"/>
       <c r="C261" s="7"/>
@@ -3495,8 +3775,9 @@
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
       <c r="I261" s="10"/>
-    </row>
-    <row r="262" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J261" s="7"/>
+    </row>
+    <row r="262" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A262" s="5"/>
       <c r="B262" s="12"/>
       <c r="C262" s="7"/>
@@ -3506,8 +3787,9 @@
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
       <c r="I262" s="10"/>
-    </row>
-    <row r="263" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J262" s="7"/>
+    </row>
+    <row r="263" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A263" s="5"/>
       <c r="B263" s="12"/>
       <c r="C263" s="7"/>
@@ -3517,8 +3799,9 @@
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
       <c r="I263" s="10"/>
-    </row>
-    <row r="264" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J263" s="7"/>
+    </row>
+    <row r="264" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A264" s="5"/>
       <c r="B264" s="12"/>
       <c r="C264" s="7"/>
@@ -3528,8 +3811,9 @@
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
       <c r="I264" s="10"/>
-    </row>
-    <row r="265" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J264" s="7"/>
+    </row>
+    <row r="265" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A265" s="5"/>
       <c r="B265" s="12"/>
       <c r="C265" s="7"/>
@@ -3539,8 +3823,9 @@
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
       <c r="I265" s="10"/>
-    </row>
-    <row r="266" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J265" s="7"/>
+    </row>
+    <row r="266" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A266" s="5"/>
       <c r="B266" s="12"/>
       <c r="C266" s="7"/>
@@ -3550,8 +3835,9 @@
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
       <c r="I266" s="10"/>
-    </row>
-    <row r="267" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J266" s="7"/>
+    </row>
+    <row r="267" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A267" s="5"/>
       <c r="B267" s="12"/>
       <c r="C267" s="7"/>
@@ -3561,8 +3847,9 @@
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
       <c r="I267" s="10"/>
-    </row>
-    <row r="268" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J267" s="7"/>
+    </row>
+    <row r="268" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A268" s="5"/>
       <c r="B268" s="12"/>
       <c r="C268" s="7"/>
@@ -3572,8 +3859,9 @@
       <c r="G268" s="7"/>
       <c r="H268" s="7"/>
       <c r="I268" s="10"/>
-    </row>
-    <row r="269" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J268" s="7"/>
+    </row>
+    <row r="269" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A269" s="5"/>
       <c r="B269" s="12"/>
       <c r="C269" s="7"/>
@@ -3583,8 +3871,9 @@
       <c r="G269" s="7"/>
       <c r="H269" s="7"/>
       <c r="I269" s="10"/>
-    </row>
-    <row r="270" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J269" s="7"/>
+    </row>
+    <row r="270" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A270" s="5"/>
       <c r="B270" s="12"/>
       <c r="C270" s="7"/>
@@ -3594,8 +3883,9 @@
       <c r="G270" s="7"/>
       <c r="H270" s="7"/>
       <c r="I270" s="10"/>
-    </row>
-    <row r="271" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J270" s="7"/>
+    </row>
+    <row r="271" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A271" s="5"/>
       <c r="B271" s="12"/>
       <c r="C271" s="7"/>
@@ -3605,8 +3895,9 @@
       <c r="G271" s="7"/>
       <c r="H271" s="7"/>
       <c r="I271" s="10"/>
-    </row>
-    <row r="272" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J271" s="7"/>
+    </row>
+    <row r="272" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A272" s="5"/>
       <c r="B272" s="12"/>
       <c r="C272" s="7"/>
@@ -3616,8 +3907,9 @@
       <c r="G272" s="7"/>
       <c r="H272" s="7"/>
       <c r="I272" s="10"/>
-    </row>
-    <row r="273" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J272" s="7"/>
+    </row>
+    <row r="273" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A273" s="5"/>
       <c r="B273" s="12"/>
       <c r="C273" s="7"/>
@@ -3627,8 +3919,9 @@
       <c r="G273" s="7"/>
       <c r="H273" s="7"/>
       <c r="I273" s="10"/>
-    </row>
-    <row r="274" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J273" s="7"/>
+    </row>
+    <row r="274" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A274" s="5"/>
       <c r="B274" s="12"/>
       <c r="C274" s="7"/>
@@ -3638,8 +3931,9 @@
       <c r="G274" s="7"/>
       <c r="H274" s="7"/>
       <c r="I274" s="10"/>
-    </row>
-    <row r="275" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J274" s="7"/>
+    </row>
+    <row r="275" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A275" s="5"/>
       <c r="B275" s="12"/>
       <c r="C275" s="7"/>
@@ -3649,8 +3943,9 @@
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
       <c r="I275" s="10"/>
-    </row>
-    <row r="276" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J275" s="7"/>
+    </row>
+    <row r="276" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A276" s="5"/>
       <c r="B276" s="12"/>
       <c r="C276" s="7"/>
@@ -3660,8 +3955,9 @@
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
       <c r="I276" s="10"/>
-    </row>
-    <row r="277" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J276" s="7"/>
+    </row>
+    <row r="277" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A277" s="5"/>
       <c r="B277" s="12"/>
       <c r="C277" s="7"/>
@@ -3671,8 +3967,9 @@
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
       <c r="I277" s="10"/>
-    </row>
-    <row r="278" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J277" s="7"/>
+    </row>
+    <row r="278" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A278" s="5"/>
       <c r="B278" s="12"/>
       <c r="C278" s="7"/>
@@ -3682,8 +3979,9 @@
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
       <c r="I278" s="10"/>
-    </row>
-    <row r="279" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J278" s="7"/>
+    </row>
+    <row r="279" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A279" s="5"/>
       <c r="B279" s="12"/>
       <c r="C279" s="7"/>
@@ -3693,8 +3991,9 @@
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
       <c r="I279" s="10"/>
-    </row>
-    <row r="280" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J279" s="7"/>
+    </row>
+    <row r="280" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A280" s="5"/>
       <c r="B280" s="12"/>
       <c r="C280" s="7"/>
@@ -3704,8 +4003,9 @@
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
       <c r="I280" s="10"/>
-    </row>
-    <row r="281" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J280" s="7"/>
+    </row>
+    <row r="281" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A281" s="5"/>
       <c r="B281" s="12"/>
       <c r="C281" s="7"/>
@@ -3715,8 +4015,9 @@
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
       <c r="I281" s="10"/>
-    </row>
-    <row r="282" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J281" s="7"/>
+    </row>
+    <row r="282" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A282" s="5"/>
       <c r="B282" s="12"/>
       <c r="C282" s="7"/>
@@ -3726,8 +4027,9 @@
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
       <c r="I282" s="10"/>
-    </row>
-    <row r="283" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J282" s="7"/>
+    </row>
+    <row r="283" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A283" s="5"/>
       <c r="B283" s="12"/>
       <c r="C283" s="7"/>
@@ -3737,8 +4039,9 @@
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
       <c r="I283" s="10"/>
-    </row>
-    <row r="284" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J283" s="7"/>
+    </row>
+    <row r="284" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A284" s="5"/>
       <c r="B284" s="12"/>
       <c r="C284" s="7"/>
@@ -3748,8 +4051,9 @@
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
       <c r="I284" s="10"/>
-    </row>
-    <row r="285" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J284" s="7"/>
+    </row>
+    <row r="285" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A285" s="5"/>
       <c r="B285" s="12"/>
       <c r="C285" s="7"/>
@@ -3759,8 +4063,9 @@
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
       <c r="I285" s="10"/>
-    </row>
-    <row r="286" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J285" s="7"/>
+    </row>
+    <row r="286" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A286" s="5"/>
       <c r="B286" s="12"/>
       <c r="C286" s="7"/>
@@ -3770,8 +4075,9 @@
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
       <c r="I286" s="10"/>
-    </row>
-    <row r="287" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J286" s="7"/>
+    </row>
+    <row r="287" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A287" s="5"/>
       <c r="B287" s="12"/>
       <c r="C287" s="7"/>
@@ -3781,8 +4087,9 @@
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
       <c r="I287" s="10"/>
-    </row>
-    <row r="288" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J287" s="7"/>
+    </row>
+    <row r="288" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A288" s="5"/>
       <c r="B288" s="12"/>
       <c r="C288" s="7"/>
@@ -3792,8 +4099,9 @@
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
       <c r="I288" s="10"/>
-    </row>
-    <row r="289" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J288" s="7"/>
+    </row>
+    <row r="289" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A289" s="5"/>
       <c r="B289" s="12"/>
       <c r="C289" s="7"/>
@@ -3803,8 +4111,9 @@
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
       <c r="I289" s="10"/>
-    </row>
-    <row r="290" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J289" s="7"/>
+    </row>
+    <row r="290" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A290" s="5"/>
       <c r="B290" s="12"/>
       <c r="C290" s="7"/>
@@ -3814,8 +4123,9 @@
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
       <c r="I290" s="10"/>
-    </row>
-    <row r="291" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J290" s="7"/>
+    </row>
+    <row r="291" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A291" s="5"/>
       <c r="B291" s="12"/>
       <c r="C291" s="7"/>
@@ -3825,8 +4135,9 @@
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
       <c r="I291" s="10"/>
-    </row>
-    <row r="292" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J291" s="7"/>
+    </row>
+    <row r="292" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A292" s="5"/>
       <c r="B292" s="12"/>
       <c r="C292" s="7"/>
@@ -3836,8 +4147,9 @@
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
       <c r="I292" s="10"/>
-    </row>
-    <row r="293" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J292" s="7"/>
+    </row>
+    <row r="293" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A293" s="5"/>
       <c r="B293" s="12"/>
       <c r="C293" s="7"/>
@@ -3847,8 +4159,9 @@
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
       <c r="I293" s="10"/>
-    </row>
-    <row r="294" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J293" s="7"/>
+    </row>
+    <row r="294" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A294" s="5"/>
       <c r="B294" s="12"/>
       <c r="C294" s="7"/>
@@ -3858,8 +4171,9 @@
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
       <c r="I294" s="10"/>
-    </row>
-    <row r="295" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J294" s="7"/>
+    </row>
+    <row r="295" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A295" s="5"/>
       <c r="B295" s="12"/>
       <c r="C295" s="7"/>
@@ -3869,8 +4183,9 @@
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
       <c r="I295" s="10"/>
-    </row>
-    <row r="296" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J295" s="7"/>
+    </row>
+    <row r="296" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A296" s="5"/>
       <c r="B296" s="12"/>
       <c r="C296" s="7"/>
@@ -3880,8 +4195,9 @@
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
       <c r="I296" s="10"/>
-    </row>
-    <row r="297" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J296" s="7"/>
+    </row>
+    <row r="297" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A297" s="5"/>
       <c r="B297" s="12"/>
       <c r="C297" s="7"/>
@@ -3891,8 +4207,9 @@
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
       <c r="I297" s="10"/>
-    </row>
-    <row r="298" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J297" s="7"/>
+    </row>
+    <row r="298" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A298" s="5"/>
       <c r="B298" s="12"/>
       <c r="C298" s="7"/>
@@ -3902,8 +4219,9 @@
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
       <c r="I298" s="10"/>
-    </row>
-    <row r="299" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J298" s="7"/>
+    </row>
+    <row r="299" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A299" s="5"/>
       <c r="B299" s="12"/>
       <c r="C299" s="7"/>
@@ -3913,8 +4231,9 @@
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
       <c r="I299" s="10"/>
-    </row>
-    <row r="300" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J299" s="7"/>
+    </row>
+    <row r="300" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A300" s="5"/>
       <c r="B300" s="12"/>
       <c r="C300" s="7"/>
@@ -3924,8 +4243,9 @@
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
       <c r="I300" s="10"/>
-    </row>
-    <row r="301" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J300" s="7"/>
+    </row>
+    <row r="301" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A301" s="5"/>
       <c r="B301" s="12"/>
       <c r="C301" s="7"/>
@@ -3935,8 +4255,9 @@
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
       <c r="I301" s="10"/>
-    </row>
-    <row r="302" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J301" s="7"/>
+    </row>
+    <row r="302" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A302" s="5"/>
       <c r="B302" s="12"/>
       <c r="C302" s="7"/>
@@ -3946,8 +4267,9 @@
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
       <c r="I302" s="10"/>
-    </row>
-    <row r="303" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J302" s="7"/>
+    </row>
+    <row r="303" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A303" s="5"/>
       <c r="B303" s="12"/>
       <c r="C303" s="7"/>
@@ -3957,8 +4279,9 @@
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
       <c r="I303" s="10"/>
-    </row>
-    <row r="304" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J303" s="7"/>
+    </row>
+    <row r="304" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A304" s="5"/>
       <c r="B304" s="12"/>
       <c r="C304" s="7"/>
@@ -3968,8 +4291,9 @@
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
       <c r="I304" s="10"/>
-    </row>
-    <row r="305" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J304" s="7"/>
+    </row>
+    <row r="305" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A305" s="5"/>
       <c r="B305" s="12"/>
       <c r="C305" s="7"/>
@@ -3979,8 +4303,9 @@
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
       <c r="I305" s="10"/>
-    </row>
-    <row r="306" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J305" s="7"/>
+    </row>
+    <row r="306" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A306" s="5"/>
       <c r="B306" s="12"/>
       <c r="C306" s="7"/>
@@ -3990,8 +4315,9 @@
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
       <c r="I306" s="10"/>
-    </row>
-    <row r="307" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J306" s="7"/>
+    </row>
+    <row r="307" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A307" s="5"/>
       <c r="B307" s="12"/>
       <c r="C307" s="7"/>
@@ -4001,8 +4327,9 @@
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
       <c r="I307" s="10"/>
-    </row>
-    <row r="308" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J307" s="7"/>
+    </row>
+    <row r="308" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A308" s="5"/>
       <c r="B308" s="12"/>
       <c r="C308" s="7"/>
@@ -4012,8 +4339,9 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
       <c r="I308" s="10"/>
-    </row>
-    <row r="309" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J308" s="7"/>
+    </row>
+    <row r="309" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A309" s="5"/>
       <c r="B309" s="12"/>
       <c r="C309" s="7"/>
@@ -4023,8 +4351,9 @@
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="10"/>
-    </row>
-    <row r="310" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J309" s="7"/>
+    </row>
+    <row r="310" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A310" s="5"/>
       <c r="B310" s="12"/>
       <c r="C310" s="7"/>
@@ -4034,8 +4363,9 @@
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
       <c r="I310" s="10"/>
-    </row>
-    <row r="311" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J310" s="7"/>
+    </row>
+    <row r="311" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A311" s="5"/>
       <c r="B311" s="12"/>
       <c r="C311" s="7"/>
@@ -4045,8 +4375,9 @@
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
       <c r="I311" s="10"/>
-    </row>
-    <row r="312" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J311" s="7"/>
+    </row>
+    <row r="312" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A312" s="5"/>
       <c r="B312" s="12"/>
       <c r="C312" s="7"/>
@@ -4056,8 +4387,9 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
       <c r="I312" s="10"/>
-    </row>
-    <row r="313" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="J312" s="7"/>
+    </row>
+    <row r="313" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A313" s="5"/>
       <c r="B313" s="12"/>
       <c r="C313" s="7"/>
@@ -4067,8 +4399,9 @@
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
       <c r="I313" s="10"/>
-    </row>
-    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J313" s="7"/>
+    </row>
+    <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="13"/>
       <c r="C314" s="8"/>
@@ -4078,8 +4411,9 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
       <c r="I314" s="11"/>
-    </row>
-    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J314" s="8"/>
+    </row>
+    <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="13"/>
       <c r="C315" s="8"/>
@@ -4089,8 +4423,9 @@
       <c r="G315" s="8"/>
       <c r="H315" s="8"/>
       <c r="I315" s="11"/>
-    </row>
-    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J315" s="8"/>
+    </row>
+    <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="13"/>
       <c r="C316" s="8"/>
@@ -4100,8 +4435,9 @@
       <c r="G316" s="8"/>
       <c r="H316" s="8"/>
       <c r="I316" s="11"/>
-    </row>
-    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J316" s="8"/>
+    </row>
+    <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="13"/>
       <c r="C317" s="8"/>
@@ -4111,8 +4447,9 @@
       <c r="G317" s="8"/>
       <c r="H317" s="8"/>
       <c r="I317" s="11"/>
-    </row>
-    <row r="318" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J317" s="8"/>
+    </row>
+    <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="13"/>
       <c r="C318" s="8"/>
@@ -4122,8 +4459,9 @@
       <c r="G318" s="8"/>
       <c r="H318" s="8"/>
       <c r="I318" s="11"/>
-    </row>
-    <row r="319" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J318" s="8"/>
+    </row>
+    <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="13"/>
       <c r="C319" s="8"/>
@@ -4133,8 +4471,9 @@
       <c r="G319" s="8"/>
       <c r="H319" s="8"/>
       <c r="I319" s="11"/>
-    </row>
-    <row r="320" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J319" s="8"/>
+    </row>
+    <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="13"/>
       <c r="C320" s="8"/>
@@ -4144,8 +4483,9 @@
       <c r="G320" s="8"/>
       <c r="H320" s="8"/>
       <c r="I320" s="11"/>
-    </row>
-    <row r="321" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J320" s="8"/>
+    </row>
+    <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="13"/>
       <c r="C321" s="8"/>
@@ -4155,8 +4495,9 @@
       <c r="G321" s="8"/>
       <c r="H321" s="8"/>
       <c r="I321" s="11"/>
-    </row>
-    <row r="322" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J321" s="8"/>
+    </row>
+    <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="13"/>
       <c r="C322" s="8"/>
@@ -4166,8 +4507,9 @@
       <c r="G322" s="8"/>
       <c r="H322" s="8"/>
       <c r="I322" s="11"/>
-    </row>
-    <row r="323" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J322" s="8"/>
+    </row>
+    <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="13"/>
       <c r="C323" s="8"/>
@@ -4177,8 +4519,9 @@
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
       <c r="I323" s="11"/>
-    </row>
-    <row r="324" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J323" s="8"/>
+    </row>
+    <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="13"/>
       <c r="C324" s="8"/>
@@ -4188,8 +4531,9 @@
       <c r="G324" s="8"/>
       <c r="H324" s="8"/>
       <c r="I324" s="11"/>
-    </row>
-    <row r="325" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J324" s="8"/>
+    </row>
+    <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="13"/>
       <c r="C325" s="8"/>
@@ -4199,8 +4543,9 @@
       <c r="G325" s="8"/>
       <c r="H325" s="8"/>
       <c r="I325" s="11"/>
-    </row>
-    <row r="326" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J325" s="8"/>
+    </row>
+    <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="13"/>
       <c r="C326" s="8"/>
@@ -4210,8 +4555,9 @@
       <c r="G326" s="8"/>
       <c r="H326" s="8"/>
       <c r="I326" s="11"/>
-    </row>
-    <row r="327" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J326" s="8"/>
+    </row>
+    <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="13"/>
       <c r="C327" s="8"/>
@@ -4221,8 +4567,9 @@
       <c r="G327" s="8"/>
       <c r="H327" s="8"/>
       <c r="I327" s="11"/>
-    </row>
-    <row r="328" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J327" s="8"/>
+    </row>
+    <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="13"/>
       <c r="C328" s="8"/>
@@ -4232,8 +4579,9 @@
       <c r="G328" s="8"/>
       <c r="H328" s="8"/>
       <c r="I328" s="11"/>
-    </row>
-    <row r="329" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J328" s="8"/>
+    </row>
+    <row r="329" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="13"/>
       <c r="C329" s="8"/>
@@ -4243,8 +4591,9 @@
       <c r="G329" s="8"/>
       <c r="H329" s="8"/>
       <c r="I329" s="11"/>
-    </row>
-    <row r="330" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J329" s="8"/>
+    </row>
+    <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="13"/>
       <c r="C330" s="8"/>
@@ -4254,8 +4603,9 @@
       <c r="G330" s="8"/>
       <c r="H330" s="8"/>
       <c r="I330" s="11"/>
-    </row>
-    <row r="331" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J330" s="8"/>
+    </row>
+    <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="13"/>
       <c r="C331" s="8"/>
@@ -4265,8 +4615,9 @@
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
       <c r="I331" s="11"/>
-    </row>
-    <row r="332" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J331" s="8"/>
+    </row>
+    <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="13"/>
       <c r="C332" s="8"/>
@@ -4276,8 +4627,9 @@
       <c r="G332" s="8"/>
       <c r="H332" s="8"/>
       <c r="I332" s="11"/>
-    </row>
-    <row r="333" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J332" s="8"/>
+    </row>
+    <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="13"/>
       <c r="C333" s="8"/>
@@ -4287,8 +4639,9 @@
       <c r="G333" s="8"/>
       <c r="H333" s="8"/>
       <c r="I333" s="11"/>
-    </row>
-    <row r="334" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J333" s="8"/>
+    </row>
+    <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="13"/>
       <c r="C334" s="8"/>
@@ -4298,8 +4651,9 @@
       <c r="G334" s="8"/>
       <c r="H334" s="8"/>
       <c r="I334" s="11"/>
-    </row>
-    <row r="335" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J334" s="8"/>
+    </row>
+    <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="13"/>
       <c r="C335" s="8"/>
@@ -4309,8 +4663,9 @@
       <c r="G335" s="8"/>
       <c r="H335" s="8"/>
       <c r="I335" s="11"/>
-    </row>
-    <row r="336" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J335" s="8"/>
+    </row>
+    <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="13"/>
       <c r="C336" s="8"/>
@@ -4320,8 +4675,9 @@
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
       <c r="I336" s="11"/>
-    </row>
-    <row r="337" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J336" s="8"/>
+    </row>
+    <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="13"/>
       <c r="C337" s="8"/>
@@ -4331,8 +4687,9 @@
       <c r="G337" s="8"/>
       <c r="H337" s="8"/>
       <c r="I337" s="11"/>
-    </row>
-    <row r="338" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J337" s="8"/>
+    </row>
+    <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="13"/>
       <c r="C338" s="8"/>
@@ -4342,8 +4699,9 @@
       <c r="G338" s="8"/>
       <c r="H338" s="8"/>
       <c r="I338" s="11"/>
-    </row>
-    <row r="339" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J338" s="8"/>
+    </row>
+    <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="13"/>
       <c r="C339" s="8"/>
@@ -4353,8 +4711,9 @@
       <c r="G339" s="8"/>
       <c r="H339" s="8"/>
       <c r="I339" s="11"/>
-    </row>
-    <row r="340" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J339" s="8"/>
+    </row>
+    <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="13"/>
       <c r="C340" s="8"/>
@@ -4364,8 +4723,9 @@
       <c r="G340" s="8"/>
       <c r="H340" s="8"/>
       <c r="I340" s="11"/>
-    </row>
-    <row r="341" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J340" s="8"/>
+    </row>
+    <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="13"/>
       <c r="C341" s="8"/>
@@ -4375,8 +4735,9 @@
       <c r="G341" s="8"/>
       <c r="H341" s="8"/>
       <c r="I341" s="11"/>
-    </row>
-    <row r="342" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J341" s="8"/>
+    </row>
+    <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="13"/>
       <c r="C342" s="8"/>
@@ -4386,8 +4747,9 @@
       <c r="G342" s="8"/>
       <c r="H342" s="8"/>
       <c r="I342" s="11"/>
-    </row>
-    <row r="343" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J342" s="8"/>
+    </row>
+    <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="13"/>
       <c r="C343" s="8"/>
@@ -4397,8 +4759,9 @@
       <c r="G343" s="8"/>
       <c r="H343" s="8"/>
       <c r="I343" s="11"/>
-    </row>
-    <row r="344" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J343" s="8"/>
+    </row>
+    <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="13"/>
       <c r="C344" s="8"/>
@@ -4408,8 +4771,9 @@
       <c r="G344" s="8"/>
       <c r="H344" s="8"/>
       <c r="I344" s="11"/>
-    </row>
-    <row r="345" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J344" s="8"/>
+    </row>
+    <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="13"/>
       <c r="C345" s="8"/>
@@ -4419,8 +4783,9 @@
       <c r="G345" s="8"/>
       <c r="H345" s="8"/>
       <c r="I345" s="11"/>
-    </row>
-    <row r="346" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J345" s="8"/>
+    </row>
+    <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="13"/>
       <c r="C346" s="8"/>
@@ -4430,8 +4795,9 @@
       <c r="G346" s="8"/>
       <c r="H346" s="8"/>
       <c r="I346" s="11"/>
-    </row>
-    <row r="347" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J346" s="8"/>
+    </row>
+    <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="13"/>
       <c r="C347" s="8"/>
@@ -4441,8 +4807,9 @@
       <c r="G347" s="8"/>
       <c r="H347" s="8"/>
       <c r="I347" s="11"/>
-    </row>
-    <row r="348" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J347" s="8"/>
+    </row>
+    <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="13"/>
       <c r="C348" s="8"/>
@@ -4452,8 +4819,9 @@
       <c r="G348" s="8"/>
       <c r="H348" s="8"/>
       <c r="I348" s="11"/>
-    </row>
-    <row r="349" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J348" s="8"/>
+    </row>
+    <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="13"/>
       <c r="C349" s="8"/>
@@ -4463,8 +4831,9 @@
       <c r="G349" s="8"/>
       <c r="H349" s="8"/>
       <c r="I349" s="11"/>
-    </row>
-    <row r="350" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J349" s="8"/>
+    </row>
+    <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="13"/>
       <c r="C350" s="8"/>
@@ -4474,8 +4843,9 @@
       <c r="G350" s="8"/>
       <c r="H350" s="8"/>
       <c r="I350" s="11"/>
-    </row>
-    <row r="351" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J350" s="8"/>
+    </row>
+    <row r="351" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="13"/>
       <c r="C351" s="8"/>
@@ -4485,8 +4855,9 @@
       <c r="G351" s="8"/>
       <c r="H351" s="8"/>
       <c r="I351" s="11"/>
-    </row>
-    <row r="352" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J351" s="8"/>
+    </row>
+    <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="13"/>
       <c r="C352" s="8"/>
@@ -4496,8 +4867,9 @@
       <c r="G352" s="8"/>
       <c r="H352" s="8"/>
       <c r="I352" s="11"/>
-    </row>
-    <row r="353" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J352" s="8"/>
+    </row>
+    <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="13"/>
       <c r="C353" s="8"/>
@@ -4507,8 +4879,9 @@
       <c r="G353" s="8"/>
       <c r="H353" s="8"/>
       <c r="I353" s="11"/>
-    </row>
-    <row r="354" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J353" s="8"/>
+    </row>
+    <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="13"/>
       <c r="C354" s="8"/>
@@ -4518,8 +4891,9 @@
       <c r="G354" s="8"/>
       <c r="H354" s="8"/>
       <c r="I354" s="11"/>
-    </row>
-    <row r="355" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J354" s="8"/>
+    </row>
+    <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="13"/>
       <c r="C355" s="8"/>
@@ -4529,8 +4903,9 @@
       <c r="G355" s="8"/>
       <c r="H355" s="8"/>
       <c r="I355" s="11"/>
-    </row>
-    <row r="356" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J355" s="8"/>
+    </row>
+    <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="13"/>
       <c r="C356" s="8"/>
@@ -4540,8 +4915,9 @@
       <c r="G356" s="8"/>
       <c r="H356" s="8"/>
       <c r="I356" s="3"/>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J356" s="8"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="14"/>
       <c r="C357" s="9"/>
@@ -4551,8 +4927,9 @@
       <c r="G357" s="9"/>
       <c r="H357" s="9"/>
       <c r="I357" s="4"/>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J357" s="9"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="14"/>
       <c r="C358" s="4"/>
@@ -4562,8 +4939,9 @@
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J358" s="4"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="15"/>
       <c r="C359" s="4"/>
@@ -4573,8 +4951,9 @@
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J359" s="4"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="15"/>
       <c r="C360" s="4"/>
@@ -4584,8 +4963,9 @@
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J360" s="4"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="15"/>
       <c r="C361" s="4"/>
@@ -4595,8 +4975,9 @@
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J361" s="4"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="15"/>
       <c r="C362" s="4"/>
@@ -4606,8 +4987,9 @@
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J362" s="4"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="15"/>
       <c r="C363" s="4"/>
@@ -4617,8 +4999,9 @@
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J363" s="4"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="15"/>
       <c r="C364" s="4"/>
@@ -4628,8 +5011,9 @@
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J364" s="4"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="15"/>
       <c r="C365" s="4"/>
@@ -4639,8 +5023,9 @@
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J365" s="4"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="16"/>
       <c r="C366" s="2"/>
@@ -4650,8 +5035,9 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J366" s="2"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="16"/>
       <c r="C367" s="2"/>
@@ -4661,8 +5047,9 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J367" s="2"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="16"/>
       <c r="C368" s="2"/>
@@ -4672,8 +5059,9 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J368" s="2"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="16"/>
       <c r="C369" s="2"/>
@@ -4683,8 +5071,9 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J369" s="2"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="16"/>
       <c r="C370" s="2"/>
@@ -4694,8 +5083,9 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J370" s="2"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="16"/>
       <c r="C371" s="2"/>
@@ -4705,14 +5095,23 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:I323">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF($I2&lt;=0,$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IF($I2&gt;=0,$I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J323">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF($I2&lt;=0,$I2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF($I2&gt;=0,$I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8826,10 +9225,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E323">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF($E2&lt;=0,$E2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF($E2&gt;=0,$E2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataBlog.xlsx
+++ b/DataBlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\投资沙雕日记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6278B66F-7F6F-4E27-8873-80F8CA332C2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99222FC4-50DD-415A-A662-0E78E7110A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2010" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2790" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
+    <t>成交量（万手）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +615,7 @@
   <dimension ref="A1:J371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5108,10 +5108,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J323">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>IF($I2&lt;=0,$I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF($I2&gt;=0,$I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9225,10 +9225,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:E323">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF($E2&lt;=0,$E2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>IF($E2&gt;=0,$E2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DataBlog.xlsx
+++ b/DataBlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\投资沙雕日记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99222FC4-50DD-415A-A662-0E78E7110A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D476B71D-3172-4FF7-9897-55554736BFC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2790" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Shibor" sheetId="3" r:id="rId3"/>
     <sheet name="Libor" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +106,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成交量（万手）</t>
+    <t>成交量（手）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
